--- a/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jfg.eco\Documents\GitHub\Nord_H2ub\spine_projects\01_input_data\01_input_raw\methane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E80F7D-C7BD-4A52-82DB-1249CC81A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{11E80F7D-C7BD-4A52-82DB-1249CC81A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F6D983-8D7F-4637-BB05-50E17CECA986}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
   <si>
     <t>Unit</t>
   </si>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>initial_units_on</t>
-  </si>
-  <si>
-    <t>heat_split</t>
   </si>
   <si>
     <t>Auxilliary</t>
@@ -425,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +433,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -471,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -482,6 +485,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="A14:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,7 +950,7 @@
     <col min="3" max="18" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +958,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>34</v>
@@ -962,16 +967,16 @@
         <v>31</v>
       </c>
       <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>104</v>
-      </c>
-      <c r="I1" t="s">
-        <v>105</v>
       </c>
       <c r="J1" t="s">
         <v>79</v>
@@ -989,7 +994,7 @@
         <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P1" t="s">
         <v>36</v>
@@ -1001,7 +1006,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -1014,9 +1019,9 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
@@ -1027,9 +1032,9 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1040,7 +1045,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1062,7 +1067,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -1076,70 +1081,63 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>44</v>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1.4865951742627345E-3</v>
+      </c>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="5">
-        <v>1.4865951742627345E-3</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8 N5:N7 P2:P10" xr:uid="{ED867B80-C728-4873-8D4D-BAB1E8AB7F30}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N6 P2:P8" xr:uid="{ED867B80-C728-4873-8D4D-BAB1E8AB7F30}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1154,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A86F1AE-0A9A-41EF-AAC6-2EFA35CD0F28}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
         <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1191,31 +1189,31 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>92</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>93</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
       </c>
       <c r="N1" t="s">
         <v>14</v>
       </c>
       <c r="O1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" t="s">
         <v>98</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -1231,7 +1229,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
@@ -1242,7 +1240,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -1268,7 +1266,7 @@
         <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>5.8500000000000002E-3</v>
@@ -1288,7 +1286,7 @@
         <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
         <v>74</v>
@@ -1297,7 +1295,7 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6">
         <v>0.86792452830188682</v>
@@ -1314,13 +1312,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>78</v>
@@ -1328,16 +1326,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
         <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1607,7 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -1859,7 +1857,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane_4_InOutputs.xlsx
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -485,8 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,7 +939,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="A14:F19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1119,12 +1118,12 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane_4_InOutputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/luc_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/methane/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{11E80F7D-C7BD-4A52-82DB-1249CC81A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F6D983-8D7F-4637-BB05-50E17CECA986}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{11E80F7D-C7BD-4A52-82DB-1249CC81A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E39BADE-3C92-4740-A548-FCC898A9F92E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="3630" yWindow="-20490" windowWidth="25020" windowHeight="19680" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>Unit</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>bio_ch4_source</t>
+  </si>
+  <si>
+    <t>Methane_plant</t>
+  </si>
+  <si>
+    <t>Relation_In1_Out1</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,12 +439,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -485,7 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,6 +518,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,7 +568,7 @@
     <tableColumn id="8" xr3:uid="{0BB74548-652A-4B49-A9D4-61D66654ACD4}" name="Relation_In1_In2"/>
     <tableColumn id="7" xr3:uid="{543EA55F-949A-4EA1-A9D7-EC59FCB7A389}" name="Relation_In1_In3"/>
     <tableColumn id="10" xr3:uid="{EBBA79EE-2101-4E70-8D21-DA3ACAF6DC94}" name="Relation_In1_In4"/>
-    <tableColumn id="11" xr3:uid="{C1C13ADA-E7E8-4A12-B903-3D1EB038F555}" name="Relation_In_Out"/>
+    <tableColumn id="11" xr3:uid="{C1C13ADA-E7E8-4A12-B903-3D1EB038F555}" name="Relation_In1_Out1"/>
     <tableColumn id="16" xr3:uid="{92734E46-6C10-4C9D-89E0-7756C29CAAC4}" name="Relation_Out1_Out2"/>
     <tableColumn id="15" xr3:uid="{C7E29B48-C5C7-4D8E-9DB1-AE9198E47584}" name="Relation_Out1_Out3"/>
     <tableColumn id="25" xr3:uid="{DFF9D589-5FFC-488E-9DAA-D15BCF9E165E}" name="Relation_Out1_Out4"/>
@@ -938,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1074,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>70</v>
@@ -1110,12 +1113,12 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
@@ -1126,12 +1129,12 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1151,9 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A86F1AE-0A9A-41EF-AAC6-2EFA35CD0F28}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1203,7 +1204,7 @@
         <v>93</v>
       </c>
       <c r="N1" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="O1" t="s">
         <v>97</v>

--- a/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane_4_InOutputs.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/Products/methane/Model_Data_Base_methane_4_InOutputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/Products/methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{11E80F7D-C7BD-4A52-82DB-1249CC81A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E39BADE-3C92-4740-A548-FCC898A9F92E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{11E80F7D-C7BD-4A52-82DB-1249CC81A3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16BE9A6F-7638-4E89-8E78-4DA07822E029}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="-20490" windowWidth="25020" windowHeight="19680" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-11730" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -518,10 +518,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,9 +1089,7 @@
       <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="5">
-        <v>1.4865951742627345E-3</v>
-      </c>
+      <c r="N7" s="5"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
@@ -1111,30 +1105,6 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1154,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A86F1AE-0A9A-41EF-AAC6-2EFA35CD0F28}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
